--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.567630666666667</v>
+        <v>1.348771</v>
       </c>
       <c r="H2">
-        <v>10.702892</v>
+        <v>4.046313</v>
       </c>
       <c r="I2">
-        <v>0.109097330101568</v>
+        <v>0.04420511461245006</v>
       </c>
       <c r="J2">
-        <v>0.109097330101568</v>
+        <v>0.04420511461245006</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2376816666666667</v>
+        <v>0.01533833333333333</v>
       </c>
       <c r="N2">
-        <v>0.7130449999999999</v>
+        <v>0.046015</v>
       </c>
       <c r="O2">
-        <v>0.9393789687244751</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.939378968724475</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8479604029044444</v>
+        <v>0.02068789918833334</v>
       </c>
       <c r="R2">
-        <v>7.63164362614</v>
+        <v>0.186191092695</v>
       </c>
       <c r="S2">
-        <v>0.1024837374414046</v>
+        <v>0.04420511461245006</v>
       </c>
       <c r="T2">
-        <v>0.1024837374414045</v>
+        <v>0.04420511461245006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.567630666666667</v>
+        <v>27.953652</v>
       </c>
       <c r="H3">
-        <v>10.702892</v>
+        <v>83.860956</v>
       </c>
       <c r="I3">
-        <v>0.109097330101568</v>
+        <v>0.9161632260009622</v>
       </c>
       <c r="J3">
-        <v>0.109097330101568</v>
+        <v>0.9161632260009621</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.046015</v>
       </c>
       <c r="O3">
-        <v>0.060621031275525</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.060621031275525</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.05472150837555555</v>
+        <v>0.42876243226</v>
       </c>
       <c r="R3">
-        <v>0.49249357538</v>
+        <v>3.85886189034</v>
       </c>
       <c r="S3">
-        <v>0.006613592660163427</v>
+        <v>0.9161632260009622</v>
       </c>
       <c r="T3">
-        <v>0.006613592660163426</v>
+        <v>0.9161632260009621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.95365199999999</v>
+        <v>1.209227333333333</v>
       </c>
       <c r="H4">
-        <v>83.86095599999999</v>
+        <v>3.627682</v>
       </c>
       <c r="I4">
-        <v>0.8548162869778622</v>
+        <v>0.03963165938658775</v>
       </c>
       <c r="J4">
-        <v>0.8548162869778622</v>
+        <v>0.03963165938658775</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2376816666666667</v>
+        <v>0.01533833333333333</v>
       </c>
       <c r="N4">
-        <v>0.7130449999999999</v>
+        <v>0.046015</v>
       </c>
       <c r="O4">
-        <v>0.9393789687244751</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.939378968724475</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>6.644070596779998</v>
+        <v>0.01854753191444445</v>
       </c>
       <c r="R4">
-        <v>59.79663537101999</v>
+        <v>0.16692778723</v>
       </c>
       <c r="S4">
-        <v>0.8029964421101491</v>
+        <v>0.03963165938658775</v>
       </c>
       <c r="T4">
-        <v>0.8029964421101491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>27.95365199999999</v>
-      </c>
-      <c r="H5">
-        <v>83.86095599999999</v>
-      </c>
-      <c r="I5">
-        <v>0.8548162869778622</v>
-      </c>
-      <c r="J5">
-        <v>0.8548162869778622</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01533833333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.046015</v>
-      </c>
-      <c r="O5">
-        <v>0.060621031275525</v>
-      </c>
-      <c r="P5">
-        <v>0.060621031275525</v>
-      </c>
-      <c r="Q5">
-        <v>0.4287624322599999</v>
-      </c>
-      <c r="R5">
-        <v>3.85886189034</v>
-      </c>
-      <c r="S5">
-        <v>0.05181984486771314</v>
-      </c>
-      <c r="T5">
-        <v>0.05181984486771313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.180073666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.540221</v>
-      </c>
-      <c r="I6">
-        <v>0.03608638292056979</v>
-      </c>
-      <c r="J6">
-        <v>0.03608638292056979</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.2376816666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.7130449999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.9393789687244751</v>
-      </c>
-      <c r="P6">
-        <v>0.939378968724475</v>
-      </c>
-      <c r="Q6">
-        <v>0.2804818758827778</v>
-      </c>
-      <c r="R6">
-        <v>2.524336882945</v>
-      </c>
-      <c r="S6">
-        <v>0.03389878917292136</v>
-      </c>
-      <c r="T6">
-        <v>0.03389878917292136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.180073666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.540221</v>
-      </c>
-      <c r="I7">
-        <v>0.03608638292056979</v>
-      </c>
-      <c r="J7">
-        <v>0.03608638292056979</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01533833333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.046015</v>
-      </c>
-      <c r="O7">
-        <v>0.060621031275525</v>
-      </c>
-      <c r="P7">
-        <v>0.060621031275525</v>
-      </c>
-      <c r="Q7">
-        <v>0.01810036325722222</v>
-      </c>
-      <c r="R7">
-        <v>0.162903269315</v>
-      </c>
-      <c r="S7">
-        <v>0.002187593747648433</v>
-      </c>
-      <c r="T7">
-        <v>0.002187593747648432</v>
+        <v>0.03963165938658775</v>
       </c>
     </row>
   </sheetData>
